--- a/ApiExamples/Data/MySpreadsheet.xlsx
+++ b/ApiExamples/Data/MySpreadsheet.xlsx
@@ -47,10 +47,17 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B0F0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -76,8 +83,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -385,45 +393,46 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="C3" sqref="A1:C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="1" t="s">
         <v>8</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>